--- a/data/EnfermedadesAsa.xlsx
+++ b/data/EnfermedadesAsa.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgMTMNTXz9p4na02gRxRolhgnrr6w=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9S+zQ0Y8hNa3kSS2k1+SEkgg1AcHOIMFe2pV5goMckY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">ASA 1 </t>
   </si>
@@ -30,535 +30,265 @@
     <t>ASA 4</t>
   </si>
   <si>
-    <t>Individuo saludable sin enfermedades.</t>
-  </si>
-  <si>
-    <t>Hipertensión bien controlada.</t>
-  </si>
-  <si>
-    <t>Hipertensión no controlada.</t>
-  </si>
-  <si>
-    <t>Enfermedad coronaria inestable o infarto de miocardio reciente.</t>
-  </si>
-  <si>
-    <t>Escoliosis leve.</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus bien controlada.</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus no controlada.</t>
-  </si>
-  <si>
-    <t>Insuficiencia cardíaca descompensada.</t>
-  </si>
-  <si>
-    <t>Acné leve.</t>
-  </si>
-  <si>
-    <t>Asma leve o moderada.</t>
-  </si>
-  <si>
-    <t>Insuficiencia cardíaca bien controlada.</t>
-  </si>
-  <si>
-    <t>Enfermedad renal terminal.</t>
-  </si>
-  <si>
-    <t>Pie plano.</t>
-  </si>
-  <si>
-    <t>Hipotiroidismo bien controlado.</t>
-  </si>
-  <si>
-    <t>Asma severa.</t>
-  </si>
-  <si>
-    <t>Cirrosis hepática descompensada.</t>
-  </si>
-  <si>
-    <t>Hipertrofia benigna de próstata sin síntomas.</t>
-  </si>
-  <si>
-    <t>Anemia leve.</t>
-  </si>
-  <si>
-    <t>Enfermedad renal crónica.</t>
-  </si>
-  <si>
-    <t>Enfermedad pulmonar obstructiva crónica (EPOC) severa.</t>
-  </si>
-  <si>
-    <t>Tonsilitis crónica.</t>
-  </si>
-  <si>
-    <t>Enfermedad pulmonar obstructiva crónica (EPOC) leve.</t>
-  </si>
-  <si>
-    <t>Anemia moderada a severa.</t>
-  </si>
-  <si>
-    <t>Enfermedad cerebrovascular reciente.</t>
-  </si>
-  <si>
-    <t>Cálculos renales asintomáticos.</t>
-  </si>
-  <si>
-    <t>Obesidad moderada (Índice de masa corporal de 30-35).</t>
-  </si>
-  <si>
-    <t>Enfermedad pulmonar obstructiva crónica (EPOC) moderada.</t>
-  </si>
-  <si>
-    <t>Traumatismo cerebral grave reciente.</t>
-  </si>
-  <si>
-    <t>Quistes ováricos asintomáticos.</t>
-  </si>
-  <si>
-    <t>Epilepsia bien controlada.</t>
-  </si>
-  <si>
-    <t>Obesidad severa (Índice de masa corporal de 35-40).</t>
-  </si>
-  <si>
-    <t>Shock.</t>
-  </si>
-  <si>
-    <t>Miomas uterinos asintomáticos.</t>
-  </si>
-  <si>
-    <t>Reflujo gastroesofágico controlado.</t>
-  </si>
-  <si>
-    <t>Cáncer activo.</t>
-  </si>
-  <si>
-    <t>Sepsis.</t>
-  </si>
-  <si>
-    <t>Varices sin signos de insuficiencia venosa.</t>
-  </si>
-  <si>
-    <t>Osteoporosis.</t>
-  </si>
-  <si>
-    <t>Enfermedad isquémica del corazón estable.</t>
-  </si>
-  <si>
-    <t>Insuficiencia respiratoria.</t>
-  </si>
-  <si>
-    <t>Hemorroides sin complicaciones.</t>
-  </si>
-  <si>
-    <t>Hiperplasia benigna de próstata con síntomas.</t>
-  </si>
-  <si>
-    <t>Enfermedad pulmonar intersticial.</t>
-  </si>
-  <si>
-    <t>Insuficiencia hepática.</t>
-  </si>
-  <si>
-    <t>Fimosis.</t>
-  </si>
-  <si>
-    <t>Cálculos renales sintomáticos.</t>
-  </si>
-  <si>
-    <t>Cardiopatía valvular moderada.</t>
-  </si>
-  <si>
-    <t>Metástasis cancerosas generalizadas.</t>
-  </si>
-  <si>
-    <t>Faringitis crónica.</t>
-  </si>
-  <si>
-    <t>Angina de pecho.</t>
-  </si>
-  <si>
-    <t>Leucemia aguda.</t>
-  </si>
-  <si>
-    <t>Sinusitis crónica.</t>
-  </si>
-  <si>
-    <t>Fibromialgia.</t>
-  </si>
-  <si>
-    <t>Hipertensión pulmonar moderada.</t>
-  </si>
-  <si>
-    <t>Linfoma no Hodgkin.</t>
-  </si>
-  <si>
-    <t>Miopía.</t>
-  </si>
-  <si>
-    <t>Artritis psoriásica.</t>
-  </si>
-  <si>
-    <t>Hemofilia.</t>
-  </si>
-  <si>
-    <t>Cáncer de pulmón en estadio avanzado.</t>
-  </si>
-  <si>
-    <t>Hipermetropía.</t>
-  </si>
-  <si>
-    <t>Depresión controlada.</t>
-  </si>
-  <si>
-    <t>Trastornos de la coagulación.</t>
-  </si>
-  <si>
-    <t>Enfermedad pulmonar intersticial avanzada.</t>
-  </si>
-  <si>
-    <t>Trastorno del sueño benigno.</t>
-  </si>
-  <si>
-    <t>Ansiedad controlada.</t>
-  </si>
-  <si>
-    <t>Esclerosis múltiple progresiva.</t>
-  </si>
-  <si>
-    <t>Insuficiencia cardíaca con fracción de eyección severamente reducida.</t>
-  </si>
-  <si>
-    <t>Ronquidos</t>
-  </si>
-  <si>
-    <t>Lupus eritematoso sistémico controlado.</t>
-  </si>
-  <si>
-    <t>Parkinson avanzado.</t>
-  </si>
-  <si>
-    <t>Hipertensión pulmonar severa.</t>
-  </si>
-  <si>
-    <t>Otitis media crónica.</t>
-  </si>
-  <si>
-    <t>Esclerosis múltiple controlada.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Crohn activa.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Alzheimer avanzada.</t>
-  </si>
-  <si>
-    <t>Dermatitis atópica leve.</t>
-  </si>
-  <si>
-    <t>Parkinson controlado.</t>
-  </si>
-  <si>
-    <t>Colitis ulcerosa activa.</t>
-  </si>
-  <si>
-    <t>Esclerosis múltiple avanzada.</t>
-  </si>
-  <si>
-    <t>Psoriasis leve.</t>
-  </si>
-  <si>
-    <t>Gastritis crónica.</t>
-  </si>
-  <si>
-    <t>Osteoporosis con fracturas frecuentes.</t>
-  </si>
-  <si>
-    <t>Insuficiencia renal terminal.</t>
-  </si>
-  <si>
-    <t>Vitiligo.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Crohn controlada.</t>
-  </si>
-  <si>
-    <t>Espondilitis anquilosante.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Huntington avanzada.</t>
-  </si>
-  <si>
-    <t>Urticaria crónica.</t>
-  </si>
-  <si>
-    <t>Colitis ulcerosa controlada.</t>
-  </si>
-  <si>
-    <t>Trastorno bipolar no controlado.</t>
-  </si>
-  <si>
-    <t>Esclerosis lateral amiotrófica.</t>
-  </si>
-  <si>
-    <t>Rosácea.</t>
-  </si>
-  <si>
-    <t>Hepatitis B o C crónica.</t>
-  </si>
-  <si>
-    <t>Esquizofrenia no controlada.</t>
-  </si>
-  <si>
-    <t>Insuficiencia hepática aguda.</t>
-  </si>
-  <si>
-    <t>Incontinencia urinaria de esfuerzo.</t>
-  </si>
-  <si>
-    <t>Hiperlipidemia.</t>
+    <t>IMC &lt;30</t>
+  </si>
+  <si>
+    <t>HTA  bien controlada</t>
+  </si>
+  <si>
+    <t>HTA y DM mal controlada</t>
+  </si>
+  <si>
+    <t>Angina inestable</t>
+  </si>
+  <si>
+    <t>No tabaco</t>
+  </si>
+  <si>
+    <t>DM bien controlada</t>
+  </si>
+  <si>
+    <t>IMC &gt; 40</t>
+  </si>
+  <si>
+    <t>Enfermedad pulmonar crónica con pobre control</t>
+  </si>
+  <si>
+    <t>Mínimo OH</t>
+  </si>
+  <si>
+    <t>IMC 30-40</t>
+  </si>
+  <si>
+    <t>Enf Renal Crónica (diálisis regular)</t>
+  </si>
+  <si>
+    <t>Insuf Cardíaca Sintomática</t>
+  </si>
+  <si>
+    <t>Buena tolerancia al ejercicio</t>
+  </si>
+  <si>
+    <t>Bebedor social frecuente</t>
+  </si>
+  <si>
+    <t>Enfermedad pulmonar crónica con exacerbaciones intermitentes</t>
+  </si>
+  <si>
+    <t>IAM &lt; 3m</t>
+  </si>
+  <si>
+    <t>Tabaco frecuente</t>
+  </si>
+  <si>
+    <t>Angina Estable</t>
+  </si>
+  <si>
+    <t>ACV &lt; 3m</t>
+  </si>
+  <si>
+    <t>Embarazo</t>
+  </si>
+  <si>
+    <t>Marcapaso Implantable</t>
+  </si>
+  <si>
+    <t>TIA &lt; 3m</t>
+  </si>
+  <si>
+    <t>Enfermedad pulmonar moderada</t>
+  </si>
+  <si>
+    <t>Moderada disminución de la Fracción Eyección</t>
+  </si>
+  <si>
+    <t>Stent &lt; 3m</t>
+  </si>
+  <si>
+    <t>Enfermedad cardíaca congénita asintomática.</t>
+  </si>
+  <si>
+    <t>IAM &gt; 3m</t>
+  </si>
+  <si>
+    <t>Disfunción valvular severa</t>
+  </si>
+  <si>
+    <t>Arritmia bien controlada.</t>
+  </si>
+  <si>
+    <t>ACV &gt; 3m</t>
+  </si>
+  <si>
+    <t>Enf Renal Crónica terminal sin diálisis regular</t>
+  </si>
+  <si>
+    <t>Asma sin exacerbación.</t>
+  </si>
+  <si>
+    <t>TIA &gt; 3m</t>
+  </si>
+  <si>
+    <t>Severa reducción de Fracción de Eyección cardíaca</t>
+  </si>
+  <si>
+    <t>Epilepsia bien controlada</t>
+  </si>
+  <si>
+    <t>Stent &gt; 3m</t>
+  </si>
+  <si>
+    <t>DM NIR</t>
+  </si>
+  <si>
+    <t>RNPT &lt; 60 sem edad postconcepcional corregida</t>
+  </si>
+  <si>
+    <t>Cardiopatía congénita sintomática</t>
+  </si>
+  <si>
+    <t>IMC anormal (percentil por edad)</t>
+  </si>
+  <si>
+    <t>Abuso/dependencia OH y Drogas</t>
+  </si>
+  <si>
+    <t>Falla cardíaca congestiva</t>
+  </si>
+  <si>
+    <t>TEA con limitaciones moderadas</t>
+  </si>
+  <si>
+    <t>Hepatitis activa</t>
+  </si>
+  <si>
+    <t>Secuelas de prematurez</t>
+  </si>
+  <si>
+    <t>Enfermedad oncológica en remisión</t>
+  </si>
+  <si>
+    <t>Cardiopatía congénita estable no corregida.</t>
+  </si>
+  <si>
+    <t>Encefalopatía hipóxica isquémica aguda</t>
+  </si>
+  <si>
+    <t>AOS leve a moderada</t>
+  </si>
+  <si>
+    <t>Asma con exacerbaciones.</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Embarazo normal</t>
+  </si>
+  <si>
+    <t>Epilepsia mal controlada</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>SHE bien controlado</t>
+  </si>
+  <si>
+    <t>DM insulino requiriente.</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>Preeclampsia controlada, sin signos de severidad.</t>
+  </si>
+  <si>
+    <t>Obesidad Mórbida</t>
+  </si>
+  <si>
+    <t>Desfibrilador automático implantable.</t>
+  </si>
+  <si>
+    <t>Diabetes gestacional controlada con dieta</t>
+  </si>
+  <si>
+    <t>Desnutrición</t>
+  </si>
+  <si>
+    <t>dependencia del ventilador.</t>
+  </si>
+  <si>
+    <t>AOS severa.</t>
+  </si>
+  <si>
+    <t>Endocrinopatía.</t>
+  </si>
+  <si>
+    <t>Enfermedad oncológica activa.</t>
+  </si>
+  <si>
+    <t>Trauma severo</t>
+  </si>
+  <si>
+    <t>Falla renal</t>
+  </si>
+  <si>
+    <t>Distrés respiratorio severo</t>
   </si>
   <si>
     <t>Distrofia muscular.</t>
   </si>
   <si>
-    <t>Cáncer de páncreas avanzado.</t>
-  </si>
-  <si>
-    <t>Tendinitis.</t>
-  </si>
-  <si>
-    <t>Hipertrofia benigna de próstata con retención urinaria.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Huntington.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Parkinson avanzada.</t>
-  </si>
-  <si>
-    <t>Bursitis.</t>
-  </si>
-  <si>
-    <t>Cálculos biliares sintomáticos.</t>
-  </si>
-  <si>
-    <t>Lupus eritematoso sistémico activo.</t>
-  </si>
-  <si>
-    <t>Lupus eritematoso sistémico con compromiso de órganos vitales.</t>
-  </si>
-  <si>
-    <t>Fracturas previas con recuperación completa.</t>
-  </si>
-  <si>
-    <t>Angina inestable.</t>
-  </si>
-  <si>
-    <t>Síndrome del túnel carpiano.</t>
-  </si>
-  <si>
-    <t>Cáncer en remisión.</t>
-  </si>
-  <si>
-    <t>Insuficiencia renal crónica.</t>
-  </si>
-  <si>
-    <t>Trastorno bipolar con episodio maníaco severo.</t>
-  </si>
-  <si>
-    <t>Cálculos biliares asintomáticos.</t>
-  </si>
-  <si>
-    <t>Hiperuricemia (gota controlada).</t>
-  </si>
-  <si>
-    <t>Hemofilia moderada.</t>
-  </si>
-  <si>
-    <t>Cardiomiopatía dilatada.</t>
-  </si>
-  <si>
-    <t>Rinitis alérgica.</t>
-  </si>
-  <si>
-    <t>Hemocromatosis.</t>
-  </si>
-  <si>
-    <t>Hipertiroidismo no controlado.</t>
-  </si>
-  <si>
-    <t>Miocardiopatía hipertrófica obstructiva.</t>
-  </si>
-  <si>
-    <t>Tendinosis.</t>
-  </si>
-  <si>
-    <t>Hepatitis autoinmune.</t>
-  </si>
-  <si>
-    <t>Hepatitis autoinmune activa.</t>
-  </si>
-  <si>
-    <t>Ataque isquémico transitorio reciente.</t>
-  </si>
-  <si>
-    <t>Dismenorrea primaria.</t>
-  </si>
-  <si>
-    <t>Distrofia muscular de Becker.</t>
+    <t>Enfermedad oncológica avanzada</t>
   </si>
   <si>
     <t>Fibrosis quística.</t>
   </si>
   <si>
-    <t>Enfermedad cerebrovascular con déficits significativos.</t>
-  </si>
-  <si>
-    <t>Hipermetropía leve.</t>
-  </si>
-  <si>
-    <t>Cáncer de piel no melanoma.</t>
-  </si>
-  <si>
-    <t>Úlceras venosas crónicas.</t>
-  </si>
-  <si>
-    <t>Neumonía severa.</t>
-  </si>
-  <si>
-    <t>Miopía leve.</t>
-  </si>
-  <si>
-    <t>Cáncer de mama en etapa temprana.</t>
-  </si>
-  <si>
-    <t>Trastorno bipolar activo.</t>
-  </si>
-  <si>
-    <t>Eczema leve.</t>
-  </si>
-  <si>
-    <t>Neumonía reciente.</t>
-  </si>
-  <si>
-    <t>Trastorno de pánico no controlado.</t>
-  </si>
-  <si>
-    <t>Cistitis intersticial.</t>
-  </si>
-  <si>
-    <t>Trastornos de la articulación temporomandibular.</t>
-  </si>
-  <si>
-    <t>Trastorno de estrés postraumático no controlado.</t>
-  </si>
-  <si>
-    <t>Lumbalgia no específica.</t>
-  </si>
-  <si>
-    <t>Diverticulosis.</t>
-  </si>
-  <si>
-    <t>Miastenia gravis.</t>
-  </si>
-  <si>
-    <t>Síndrome de fatiga crónica.</t>
-  </si>
-  <si>
-    <t>Hernia inguinal.</t>
-  </si>
-  <si>
-    <t>Polineuropatía diabética.</t>
-  </si>
-  <si>
-    <t>Trastorno de estrés postraumático controlado.</t>
-  </si>
-  <si>
-    <t>Síndrome del intestino irritable.</t>
-  </si>
-  <si>
-    <t>Esclerosis múltiple recurrente.</t>
-  </si>
-  <si>
-    <t>Trastorno de pánico controlado.</t>
-  </si>
-  <si>
-    <t>Esteatosis hepática.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Parkinson moderada.</t>
-  </si>
-  <si>
-    <t>Hipotiroidismo subclínico.</t>
-  </si>
-  <si>
-    <t>Síndrome metabólico.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Crohn moderada.</t>
-  </si>
-  <si>
-    <t>Reflujo vesicoureteral asintomático.</t>
-  </si>
-  <si>
-    <t>Síndrome de Gilbert.</t>
-  </si>
-  <si>
-    <t>Colitis ulcerosa moderada.</t>
-  </si>
-  <si>
-    <t>Síndrome de ovario poliquístico sin complicaciones.</t>
-  </si>
-  <si>
-    <t>Fibrilación auricular paroxística.</t>
-  </si>
-  <si>
-    <t>Cirrosis hepática compensada.</t>
-  </si>
-  <si>
-    <t>Quiste mamario benigno.</t>
-  </si>
-  <si>
-    <t>Hipertiroidismo controlado.</t>
-  </si>
-  <si>
-    <t>Insuficiencia cardíaca con fracción de eyección reducida.</t>
-  </si>
-  <si>
-    <t>Menopausia sin complicaciones.</t>
-  </si>
-  <si>
-    <t>Enfermedad diverticular del colon.</t>
-  </si>
-  <si>
-    <t>Síndrome de Marfan con compromiso aórtico.</t>
-  </si>
-  <si>
-    <t>Fibrocístico de mama.</t>
-  </si>
-  <si>
-    <t>Síndrome de ovario poliquístico con resistencia a la insulina.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Paget de hueso.</t>
-  </si>
-  <si>
-    <t>Enfermedad de Raynaud.</t>
-  </si>
-  <si>
-    <t>Hipertensión intracraneal idiopática en remisión.</t>
-  </si>
-  <si>
-    <t>Hipertensión portal prehepática.</t>
-  </si>
-  <si>
-    <t>Colecistitis crónica.</t>
-  </si>
-  <si>
-    <t>Hemangioma hepático.</t>
+    <t>Preeclampsia con signos de severidad complicada:  HELLP u otro evento adverso</t>
+  </si>
+  <si>
+    <t>Antecedente de trasplante de órgano.</t>
+  </si>
+  <si>
+    <t>Cardiomiopatía periparto con FE&lt;40%</t>
+  </si>
+  <si>
+    <t>Malformación cerebral o médula espinal.</t>
+  </si>
+  <si>
+    <t>Cardiopatía no corregida o descompensada, adquirida o congénita</t>
+  </si>
+  <si>
+    <t>Hidrocefalia sintomática.</t>
+  </si>
+  <si>
+    <t>Infante prematuro EPC&lt;60 sem</t>
+  </si>
+  <si>
+    <t>TEA con limitaciones severas</t>
+  </si>
+  <si>
+    <t>Enfermedad metabólica</t>
+  </si>
+  <si>
+    <t>Vía aérea difícil</t>
+  </si>
+  <si>
+    <t>Nutrición parenteral de larga data</t>
+  </si>
+  <si>
+    <t>RNT &lt; 6 sem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preeclampsia con signos de severidad </t>
+  </si>
+  <si>
+    <t>DM con complicaciones o altos requerimientos de insulina</t>
+  </si>
+  <si>
+    <t>Enfermedad trombofílica que requiere anticoagulación</t>
   </si>
 </sst>
 </file>
@@ -592,14 +322,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -816,9 +543,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="59.78"/>
-    <col customWidth="1" min="2" max="2" width="69.78"/>
-    <col customWidth="1" min="3" max="3" width="75.78"/>
+    <col customWidth="1" min="1" max="1" width="18.78"/>
+    <col customWidth="1" min="2" max="2" width="22.56"/>
+    <col customWidth="1" min="3" max="3" width="33.89"/>
     <col customWidth="1" min="4" max="4" width="86.11"/>
     <col customWidth="1" min="5" max="22" width="10.56"/>
   </cols>
@@ -833,7 +560,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -894,648 +621,422 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
